--- a/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Results_Metrics_Fold_2.xlsx
+++ b/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Results_Metrics_Fold_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="10">
   <si>
     <t>Lambda Threshold</t>
   </si>
@@ -34,7 +34,16 @@
     <t>Specificity</t>
   </si>
   <si>
+    <t>44.44%</t>
+  </si>
+  <si>
     <t>100.00%</t>
+  </si>
+  <si>
+    <t>50.00%</t>
+  </si>
+  <si>
+    <t>40.00%</t>
   </si>
 </sst>
 </file>
@@ -426,16 +435,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -443,19 +452,19 @@
         <v>0.55</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -463,19 +472,19 @@
         <v>0.6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -483,19 +492,19 @@
         <v>0.65</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -503,19 +512,19 @@
         <v>0.7</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -523,19 +532,19 @@
         <v>0.75</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -543,19 +552,19 @@
         <v>0.8</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -563,19 +572,19 @@
         <v>0.85</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -583,19 +592,19 @@
         <v>0.9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Results_Metrics_Fold_2.xlsx
+++ b/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Results_Metrics_Fold_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="9">
   <si>
     <t>Lambda Threshold</t>
   </si>
@@ -34,16 +34,13 @@
     <t>Specificity</t>
   </si>
   <si>
-    <t>44.44%</t>
-  </si>
-  <si>
-    <t>100.00%</t>
-  </si>
-  <si>
-    <t>50.00%</t>
-  </si>
-  <si>
-    <t>40.00%</t>
+    <t>Tested Instance</t>
+  </si>
+  <si>
+    <t>0.00%</t>
+  </si>
+  <si>
+    <t>Signal_13s</t>
   </si>
 </sst>
 </file>
@@ -401,13 +398,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,28 +423,34 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>0.5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>0.55</v>
       </c>
@@ -466,8 +469,11 @@
       <c r="F3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>0.6</v>
       </c>
@@ -486,8 +492,11 @@
       <c r="F4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>0.65</v>
       </c>
@@ -506,8 +515,11 @@
       <c r="F5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>0.7</v>
       </c>
@@ -526,8 +538,11 @@
       <c r="F6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>0.75</v>
       </c>
@@ -546,8 +561,11 @@
       <c r="F7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>0.8</v>
       </c>
@@ -566,8 +584,11 @@
       <c r="F8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>0.85</v>
       </c>
@@ -586,8 +607,11 @@
       <c r="F9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -605,6 +629,9 @@
       </c>
       <c r="F10" t="s">
         <v>7</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Results_Metrics_Fold_2.xlsx
+++ b/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Results_Metrics_Fold_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
   <si>
     <t>Lambda Threshold</t>
   </si>
@@ -34,13 +34,31 @@
     <t>Specificity</t>
   </si>
   <si>
-    <t>Tested Instance</t>
-  </si>
-  <si>
-    <t>0.00%</t>
-  </si>
-  <si>
-    <t>Signal_13s</t>
+    <t>92.86%</t>
+  </si>
+  <si>
+    <t>98.11%</t>
+  </si>
+  <si>
+    <t>100.00%</t>
+  </si>
+  <si>
+    <t>69.23%</t>
+  </si>
+  <si>
+    <t>90.00%</t>
+  </si>
+  <si>
+    <t>81.82%</t>
+  </si>
+  <si>
+    <t>94.74%</t>
+  </si>
+  <si>
+    <t>91.49%</t>
+  </si>
+  <si>
+    <t>97.73%</t>
   </si>
 </sst>
 </file>
@@ -398,13 +416,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -423,34 +441,28 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0.5</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>0.55</v>
       </c>
@@ -458,22 +470,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>0.6</v>
       </c>
@@ -481,22 +490,19 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>0.65</v>
       </c>
@@ -504,22 +510,19 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>0.7</v>
       </c>
@@ -527,22 +530,19 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>0.75</v>
       </c>
@@ -550,22 +550,19 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>0.8</v>
       </c>
@@ -573,22 +570,19 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>0.85</v>
       </c>
@@ -596,41 +590,35 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>0.9</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Results_Metrics_Fold_2.xlsx
+++ b/Codes/ML_models/Models/All_Results/RNN_Results/TransferLearning_LSTM/Lambda_Abstain_Results_Metrics_Fold_2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="10">
   <si>
     <t>Lambda Threshold</t>
   </si>
@@ -34,31 +34,16 @@
     <t>Specificity</t>
   </si>
   <si>
-    <t>92.86%</t>
-  </si>
-  <si>
-    <t>98.11%</t>
+    <t>Tested Instance</t>
   </si>
   <si>
     <t>100.00%</t>
   </si>
   <si>
-    <t>69.23%</t>
-  </si>
-  <si>
-    <t>90.00%</t>
-  </si>
-  <si>
-    <t>81.82%</t>
-  </si>
-  <si>
-    <t>94.74%</t>
-  </si>
-  <si>
-    <t>91.49%</t>
-  </si>
-  <si>
-    <t>97.73%</t>
+    <t>0.00%</t>
+  </si>
+  <si>
+    <t>Signal_13s</t>
   </si>
 </sst>
 </file>
@@ -416,13 +401,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -441,28 +426,34 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>0.5</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>0.55</v>
       </c>
@@ -470,19 +461,22 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>0.6</v>
       </c>
@@ -490,19 +484,22 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>0.65</v>
       </c>
@@ -510,19 +507,22 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>0.7</v>
       </c>
@@ -530,19 +530,22 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>0.75</v>
       </c>
@@ -550,19 +553,22 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>0.8</v>
       </c>
@@ -570,19 +576,22 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>8</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>0.85</v>
       </c>
@@ -590,36 +599,42 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>0.9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F10" t="s">
         <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
